--- a/Documentation/Data Vault - Northwind.xlsx
+++ b/Documentation/Data Vault - Northwind.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8d30ba3537acd5/Data Engineering/Data Vault/Data-Vault-Example-Northwind/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="996" documentId="13_ncr:1_{DD5DDCC3-190E-4B47-8546-EDFD77CA3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{135CB246-0FC4-4602-88B3-406BE4BFEA64}"/>
+  <xr:revisionPtr revIDLastSave="1104" documentId="13_ncr:1_{DD5DDCC3-190E-4B47-8546-EDFD77CA3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A3F8E87-3FC8-4A67-98DD-0B9E42DB0356}"/>
   <bookViews>
-    <workbookView xWindow="7056" yWindow="132" windowWidth="15252" windowHeight="11796" xr2:uid="{6207AA47-5294-48E0-8A61-6F3DBD8121A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6207AA47-5294-48E0-8A61-6F3DBD8121A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Model" sheetId="2" r:id="rId1"/>
-    <sheet name="Databases" sheetId="11" r:id="rId2"/>
+    <sheet name="Data Models" sheetId="2" r:id="rId1"/>
+    <sheet name="Database Summary" sheetId="11" r:id="rId2"/>
     <sheet name="Table Mapping" sheetId="9" r:id="rId3"/>
     <sheet name="Notes" sheetId="10" r:id="rId4"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="212">
   <si>
     <t>Categories</t>
   </si>
@@ -127,18 +127,9 @@
     <t>Object type</t>
   </si>
   <si>
-    <t>3NF</t>
-  </si>
-  <si>
-    <t>Data Vault (Raw)</t>
-  </si>
-  <si>
     <t>Star Schema</t>
   </si>
   <si>
-    <t>Data Vault Object Naming Conventions</t>
-  </si>
-  <si>
     <t>_&lt;Source System Name&gt;</t>
   </si>
   <si>
@@ -634,13 +625,56 @@
     <t>v_PIT_</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Modelling Rules/Conventions</t>
-  </si>
-  <si>
     <t>No 'context' satellites on Links. Link Satellites permitted exclusively for effectivity and deletion tracking. If contextual attibutes exist at Link grain, use a 'keyed instance' hub.</t>
+  </si>
+  <si>
+    <t>Northwind</t>
+  </si>
+  <si>
+    <t>Raw Data Vault</t>
+  </si>
+  <si>
+    <t>Data Vault Naming Conventions</t>
+  </si>
+  <si>
+    <t>Modelling Rules &amp; Conventions</t>
+  </si>
+  <si>
+    <t>Database Summary</t>
+  </si>
+  <si>
+    <t>Database Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Stage_Area</t>
+  </si>
+  <si>
+    <t>Meta_Metrics_Error_Mart</t>
+  </si>
+  <si>
+    <t>Data_Vault</t>
+  </si>
+  <si>
+    <t>Information_Mart</t>
+  </si>
+  <si>
+    <t>Source database. Northwind Traders is a fictitious organization that manages orders, products, customers, suppliers, and many other aspects of a small business. This sample appeared with the first versions of Microsoft Access and is still available as an Access template.</t>
+  </si>
+  <si>
+    <t>The goal of the stage area Is to stage incoming data in order to reduce the workload on the operational systems and shorten the access time to them. The stage area is defined as a temporary storage of the incoming data. No changes are applied to source data in loading the stage area except ensuring expected data types.</t>
+  </si>
+  <si>
+    <t>The Meta Mart, Metrics Mart, and Error Mart are special instances of information marts which are primarily used to analyse internals of the data warehouse. This implementation merges these marts into a single database, separated by schemas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of the Data Vault layer is to permanently store the enterprise data with all its history. Database includes both the raw and business vaults on different schemas.  </t>
+  </si>
+  <si>
+    <t>Sourced from the Data Vault database, the Information Mart is intended for access by end users for analysis. Data is modelled as star schema. 
+I have also included 'replica' views just to help illustrate how source data can be accurately replicated from Data Vault tables.</t>
   </si>
 </sst>
 </file>
@@ -926,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1023,6 +1057,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,16 +1093,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>65315</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>75211</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>51460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>519249</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>40278</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6631</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>26424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1088,8 +1132,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="587829" y="762001"/>
-          <a:ext cx="9075420" cy="6822077"/>
+          <a:off x="934193" y="1201387"/>
+          <a:ext cx="9075420" cy="6639000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1104,6 +1148,156 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390698</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>159677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251BA12F-66A6-DDCE-E065-AAACC714A4C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8853451"/>
+          <a:ext cx="9784080" cy="8194918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>432460</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74514</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>142275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E6685A-B9EF-CF70-EF80-D8A8C74FF8AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="681842" y="18398836"/>
+          <a:ext cx="5738054" cy="7886966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>290945</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542599</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>142275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54322FFC-A273-2446-C554-5AFDF9FDD96B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7245927" y="18398836"/>
+          <a:ext cx="5738054" cy="7886966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1412,45 +1606,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1F2E83-6FDB-4A03-B328-43C2FD5404DD}">
-  <dimension ref="A2:B55"/>
+  <dimension ref="B2:C96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B2" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B46" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="61"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="61"/>
+      <c r="C48" s="62"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="62"/>
+    </row>
+    <row r="96" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B96" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A48" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="62" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
-      <c r="B51" s="62"/>
-    </row>
-    <row r="53" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A53" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="62" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1462,14 +1655,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119D2CF9-1C66-40C7-91C1-469AE7C15367}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="107" style="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B2" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1479,7 +1731,7 @@
   <dimension ref="B2:Q42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,9 +1754,9 @@
     <col min="17" max="17" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>143</v>
+    <row r="2" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B2" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E2" s="60"/>
     </row>
@@ -1513,19 +1765,19 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="64"/>
       <c r="G4" s="64"/>
       <c r="H4" s="64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I4" s="64"/>
       <c r="J4" s="64"/>
@@ -1533,7 +1785,7 @@
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
       <c r="N4" s="64" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O4" s="64"/>
       <c r="P4" s="64"/>
@@ -1541,19 +1793,19 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="66"/>
       <c r="G5" s="67"/>
       <c r="H5" s="68" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -1561,10 +1813,10 @@
       <c r="L5" s="68"/>
       <c r="M5" s="69"/>
       <c r="N5" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O5" s="63" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P5" s="63"/>
       <c r="Q5" s="63"/>
@@ -1586,37 +1838,37 @@
         <v>21</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P6" s="37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
@@ -1627,31 +1879,31 @@
         <v>0</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
       <c r="M7" s="31"/>
       <c r="N7" s="38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="39"/>
     </row>
@@ -1661,11 +1913,11 @@
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -1686,14 +1938,14 @@
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
@@ -1701,12 +1953,12 @@
       <c r="L9" s="34"/>
       <c r="M9" s="35"/>
       <c r="N9" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O9" s="44"/>
       <c r="P9" s="45"/>
       <c r="Q9" s="45" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
@@ -1717,31 +1969,31 @@
         <v>2</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="31"/>
       <c r="N10" s="46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="39"/>
     </row>
@@ -1751,11 +2003,11 @@
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
@@ -1775,31 +2027,31 @@
         <v>3</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="31"/>
       <c r="N12" s="38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O12" s="39"/>
       <c r="P12" s="39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q12" s="39"/>
     </row>
@@ -1809,11 +2061,11 @@
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
@@ -1833,33 +2085,33 @@
         <v>4</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
       <c r="M14" s="31"/>
       <c r="N14" s="46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="39"/>
     </row>
@@ -1869,11 +2121,11 @@
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
@@ -1883,7 +2135,7 @@
       <c r="N15" s="46"/>
       <c r="O15" s="39"/>
       <c r="P15" s="39" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q15" s="39"/>
     </row>
@@ -1893,11 +2145,11 @@
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -1918,14 +2170,14 @@
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
@@ -1933,12 +2185,12 @@
       <c r="L17" s="34"/>
       <c r="M17" s="35"/>
       <c r="N17" s="43" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O17" s="44"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="45" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
@@ -1949,36 +2201,36 @@
         <v>6</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M18" s="31"/>
       <c r="N18" s="46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -1989,11 +2241,11 @@
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -2013,36 +2265,36 @@
         <v>7</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M20" s="31"/>
       <c r="N20" s="46" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -2053,24 +2305,24 @@
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M21" s="31"/>
       <c r="N21" s="46"/>
       <c r="O21" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
@@ -2081,11 +2333,11 @@
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
@@ -2111,27 +2363,27 @@
         <v>16</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
       <c r="M23" s="31"/>
       <c r="N23" s="46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O23" s="39"/>
       <c r="P23" s="39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="39"/>
     </row>
@@ -2143,11 +2395,11 @@
         <v>18</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
@@ -2165,11 +2417,11 @@
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -2187,11 +2439,11 @@
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -2211,31 +2463,31 @@
         <v>9</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31"/>
       <c r="N27" s="46" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O27" s="39"/>
       <c r="P27" s="39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="39"/>
     </row>
@@ -2245,11 +2497,11 @@
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
@@ -2269,31 +2521,31 @@
         <v>10</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="31"/>
       <c r="N29" s="46" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O29" s="39"/>
       <c r="P29" s="39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="39"/>
     </row>
@@ -2303,11 +2555,11 @@
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
@@ -2331,27 +2583,27 @@
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
       <c r="M31" s="31"/>
       <c r="N31" s="46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O31" s="39"/>
       <c r="P31" s="39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="39"/>
     </row>
@@ -2361,11 +2613,11 @@
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
@@ -2385,33 +2637,33 @@
         <v>12</v>
       </c>
       <c r="D33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>65</v>
-      </c>
       <c r="F33" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
       <c r="M33" s="31"/>
       <c r="N33" s="38" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O33" s="39"/>
       <c r="P33" s="39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q33" s="39"/>
     </row>
@@ -2421,11 +2673,11 @@
       <c r="D34" s="19"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
@@ -2443,11 +2695,11 @@
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
@@ -2466,7 +2718,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
@@ -2474,12 +2726,12 @@
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
       <c r="M36" s="57" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N36" s="38"/>
       <c r="O36" s="39"/>
       <c r="P36" s="39" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q36" s="39"/>
     </row>
@@ -2499,7 +2751,7 @@
       <c r="N37" s="46"/>
       <c r="O37" s="39"/>
       <c r="P37" s="39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q37" s="39"/>
     </row>
@@ -2519,7 +2771,7 @@
       <c r="N38" s="46"/>
       <c r="O38" s="39"/>
       <c r="P38" s="39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q38" s="39"/>
     </row>
@@ -2539,7 +2791,7 @@
       <c r="N39" s="46"/>
       <c r="O39" s="39"/>
       <c r="P39" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q39" s="39"/>
     </row>
@@ -2579,7 +2831,7 @@
   <dimension ref="A2:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2589,9 +2841,9 @@
     <col min="3" max="3" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
+    <row r="2" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2623,21 +2875,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2645,10 +2897,10 @@
         <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2656,63 +2908,63 @@
         <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Data Vault - Northwind.xlsx
+++ b/Documentation/Data Vault - Northwind.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8d30ba3537acd5/Data Engineering/Data Vault/Data-Vault-Example-Northwind/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1104" documentId="13_ncr:1_{DD5DDCC3-190E-4B47-8546-EDFD77CA3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A3F8E87-3FC8-4A67-98DD-0B9E42DB0356}"/>
+  <xr:revisionPtr revIDLastSave="1149" documentId="13_ncr:1_{DD5DDCC3-190E-4B47-8546-EDFD77CA3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD4B5047-E92E-4164-96B6-2712EB0ADA6C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6207AA47-5294-48E0-8A61-6F3DBD8121A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6207AA47-5294-48E0-8A61-6F3DBD8121A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Models" sheetId="2" r:id="rId1"/>
+    <sheet name="Data Modelling" sheetId="2" r:id="rId1"/>
     <sheet name="Database Summary" sheetId="11" r:id="rId2"/>
     <sheet name="Table Mapping" sheetId="9" r:id="rId3"/>
-    <sheet name="Notes" sheetId="10" r:id="rId4"/>
+    <sheet name="Rules + Conventions" sheetId="10" r:id="rId4"/>
+    <sheet name="Notes" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="221">
   <si>
     <t>Categories</t>
   </si>
@@ -675,6 +676,33 @@
   <si>
     <t>Sourced from the Data Vault database, the Information Mart is intended for access by end users for analysis. Data is modelled as star schema. 
 I have also included 'replica' views just to help illustrate how source data can be accurately replicated from Data Vault tables.</t>
+  </si>
+  <si>
+    <t>My implementation here most closely adheres to Dan Linstedt's Data Vault 2.0 standard, but also takes some inspiration from the work of others, primarily Hans Hultgren and Patrick Cuba.</t>
+  </si>
+  <si>
+    <t>This implementation should not be considered 'textbook' or representative of a real production Data Vault data warehouse; it is intended as a simplified example for educational purposes. A full-scale production data warehouse would almost certainly integrate data from multiple source systems, use incremental loads, and employ parallelised ETL scheduling as a just a few examples. My goal here was to have something somebody can set up, load, and be getting info out of the information mart with just SQL Server in a matter of minutes.</t>
+  </si>
+  <si>
+    <t>My approach to Satellite types is simplistic, illustrating a few basic functions they commonly serve - link effectivity (including deletions and driving key relationships), business key deletions, and historisation of contextual attributes.</t>
+  </si>
+  <si>
+    <t>This project was coded by hand, so no doubt there are a few inconsistencies in coding conventions. In a professional Data Vault implementation, I would consider a code automation tool to be a non-negotiable expense (WhereScape 3D/RED, Vaultspeed, dbtvault, etc.).</t>
+  </si>
+  <si>
+    <t>Business keys in Northwind are seldom uniquely indexed, so the surrogate IDs have been used where necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Mart objects are fully virtual, i.e. views. In addition to star schema facts, dimensions, and bridges, I have included 'replica' views, which, as the name suggests, exactly replicate all Northwind database source tables from their respective Data Vault objects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Mart views present 'current' data as it existed in the data warehouse as at the specific (load effective) time specified in the 'Value' field of the 'Information_Mart_Load_Effective_Datetime' (ID = 1) record in Meta_Metrics_Error_Mart.meta.Parameter. If this field is left blank, the current datetime will be employed. This functionality is enabled by the use of PIT tables built for each Hub. </t>
+  </si>
+  <si>
+    <t>Remaining to-do items include fleshing out the Meta_Metrics_Error_Mart and tweaking indexing for Information_Mart query performance.</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -960,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -970,9 +998,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1001,9 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1015,9 +1037,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1036,27 +1055,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1066,6 +1064,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,7 +1184,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>390698</xdr:colOff>
+      <xdr:colOff>417592</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>159677</xdr:rowOff>
     </xdr:to>
@@ -1608,13 +1631,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1F2E83-6FDB-4A03-B328-43C2FD5404DD}">
   <dimension ref="B2:C96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView showGridLines="0" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
@@ -1628,18 +1651,18 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="61"/>
+      <c r="B47" s="58"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="61"/>
-      <c r="C48" s="62"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="61"/>
-      <c r="C49" s="62"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="62"/>
+      <c r="C94" s="59"/>
     </row>
     <row r="96" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B96" s="2" t="s">
@@ -1665,7 +1688,7 @@
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="107" style="71" customWidth="1"/>
+    <col min="3" max="3" width="107" style="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
@@ -1674,50 +1697,50 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="63" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="61" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="61" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="61" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="61" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="61" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1728,15 +1751,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7052CFE6-7CEF-4EA6-9632-54441F5C923E}">
-  <dimension ref="B2:Q42"/>
+  <dimension ref="A2:Q42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
@@ -1754,20 +1777,20 @@
     <col min="17" max="17" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="60"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="E2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>157</v>
       </c>
       <c r="D4" s="64" t="s">
@@ -1791,1009 +1814,1010 @@
       <c r="P4" s="64"/>
       <c r="Q4" s="64"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="36" t="s">
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="49" t="s">
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="N6" s="56" t="s">
+      <c r="N6" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="35" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="50" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="55" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="38" t="s">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="Q7" s="39"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="51"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="Q7" s="37"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="48"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="32" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="52" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="43" t="s">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45" t="s">
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="30" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="46" t="s">
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39" t="s">
+      <c r="O10" s="37"/>
+      <c r="P10" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" s="39"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="51"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
+      <c r="Q10" s="37"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="48"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="32" t="s">
+      <c r="G11" s="23"/>
+      <c r="H11" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="38" t="s">
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39" t="s">
+      <c r="O12" s="37"/>
+      <c r="P12" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="Q12" s="39"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
+      <c r="Q12" s="37"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="48"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="32" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="53" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="46" t="s">
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39" t="s">
+      <c r="O14" s="37"/>
+      <c r="P14" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="Q14" s="39"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="53"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
+      <c r="Q14" s="37"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="50"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39" t="s">
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="Q15" s="39"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
+      <c r="Q15" s="37"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="48"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="32" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="34" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="43" t="s">
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45" t="s">
+      <c r="O17" s="42"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="46" t="s">
+      <c r="M18" s="30"/>
+      <c r="N18" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="51"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="32" t="s">
+      <c r="G19" s="23"/>
+      <c r="H19" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="30" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="46" t="s">
+      <c r="M20" s="30"/>
+      <c r="N20" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="O20" s="39" t="s">
+      <c r="O20" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="53"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="30" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="39" t="s">
+      <c r="M21" s="30"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="51"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="32" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="30" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="46" t="s">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39" t="s">
+      <c r="O23" s="37"/>
+      <c r="P23" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="Q23" s="39"/>
+      <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="53"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="30" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="53"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="30" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="51"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="32" t="s">
+      <c r="G26" s="23"/>
+      <c r="H26" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="30" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="46" t="s">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39" t="s">
+      <c r="O27" s="37"/>
+      <c r="P27" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="Q27" s="39"/>
+      <c r="Q27" s="37"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="51"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="32" t="s">
+      <c r="G28" s="23"/>
+      <c r="H28" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="30" t="s">
+      <c r="G29" s="20"/>
+      <c r="H29" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="46" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39" t="s">
+      <c r="O29" s="37"/>
+      <c r="P29" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="Q29" s="39"/>
+      <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="51"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="32" t="s">
+      <c r="G30" s="23"/>
+      <c r="H30" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="20"/>
+      <c r="H31" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="46" t="s">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39" t="s">
+      <c r="O31" s="37"/>
+      <c r="P31" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="Q31" s="39"/>
+      <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="51"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="32" t="s">
+      <c r="G32" s="23"/>
+      <c r="H32" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="20"/>
+      <c r="H33" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="J33" s="30" t="s">
+      <c r="J33" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="38" t="s">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39" t="s">
+      <c r="O33" s="37"/>
+      <c r="P33" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="Q33" s="39"/>
+      <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="53"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="30" t="s">
+      <c r="G34" s="20"/>
+      <c r="H34" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="51"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="32" t="s">
+      <c r="G35" s="23"/>
+      <c r="H35" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="50"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="58" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="57" t="s">
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="N36" s="38"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39" t="s">
+      <c r="N36" s="36"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="Q36" s="39"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="53"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="Q37" s="39"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="53"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="Q38" s="39"/>
+      <c r="Q38" s="37"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="53"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="Q39" s="39"/>
+      <c r="Q39" s="37"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C42" s="8"/>
@@ -2828,143 +2852,280 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A415F46-8E07-4FE7-966B-4E63E945769C}">
-  <dimension ref="A2:C21"/>
+  <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B2" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
+    <row r="18" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B18" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="61"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="61"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="61"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="61"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="61"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="61"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="61"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="61"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="61"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="61"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="61"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="61"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="61"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="61"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EB0B39-FEE6-4851-B80D-8D7DB2E66E7B}">
+  <dimension ref="B2:B18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="128.77734375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="66"/>
+    </row>
+    <row r="6" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="66"/>
+    </row>
+    <row r="8" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="66"/>
+    </row>
+    <row r="10" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="66"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="66"/>
+    </row>
+    <row r="14" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="66"/>
+    </row>
+    <row r="16" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="66"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="66" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Data Vault - Northwind.xlsx
+++ b/Documentation/Data Vault - Northwind.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8d30ba3537acd5/Data Engineering/Data Vault/Data-Vault-Example-Northwind V2 - Dev/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8d30ba3537acd5/Data Engineering/Data Vault/Data-Vault-Example-Northwind/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1938" documentId="13_ncr:1_{DD5DDCC3-190E-4B47-8546-EDFD77CA3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83601DD6-29E8-46E7-BC7C-4F925543C07A}"/>
+  <xr:revisionPtr revIDLastSave="1959" documentId="13_ncr:1_{DD5DDCC3-190E-4B47-8546-EDFD77CA3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0C3460-6000-458A-AAFD-81034C87B6CC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6207AA47-5294-48E0-8A61-6F3DBD8121A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
   <si>
     <t>Object type</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Information_Mart</t>
-  </si>
-  <si>
-    <t>TODO</t>
   </si>
   <si>
     <t>Schema</t>
@@ -340,9 +337,6 @@
   <si>
     <t>Sourced from the Data Vault database, the Information Mart is intended for access by end users for analysis.
 Contains performance-oriented business data vault tables as well as Kimball-style facts and dimensions.</t>
-  </si>
-  <si>
-    <t>Information Mart Star Schema</t>
   </si>
   <si>
     <t>Naming Conventions</t>
@@ -673,16 +667,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>75211</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>51460</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271154</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>6631</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>26424</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>348533</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -712,8 +706,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="934193" y="1201387"/>
-          <a:ext cx="9075420" cy="6639000"/>
+          <a:off x="499754" y="791688"/>
+          <a:ext cx="6173379" cy="4640283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,11 +726,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130627</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>67596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0B65C6-E3B9-85AE-4A91-7E6963ECFE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="359227" y="6694713"/>
+          <a:ext cx="6455229" cy="9200712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1038,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1F2E83-6FDB-4A03-B328-43C2FD5404DD}">
   <dimension ref="B2:C95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,32 +1086,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B46" s="1" t="s">
+    <row r="34" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="6"/>
+    </row>
+    <row r="89" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C95" s="6"/>
     </row>
   </sheetData>
@@ -1091,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A415F46-8E07-4FE7-966B-4E63E945769C}">
   <dimension ref="B2:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -1107,7 +1137,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1117,441 +1147,441 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -1564,14 +1594,14 @@
     </row>
     <row r="32" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="34" spans="2:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -1581,7 +1611,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1591,7 +1621,7 @@
     </row>
     <row r="38" spans="2:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -1603,7 +1633,7 @@
     </row>
     <row r="40" spans="2:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1615,7 +1645,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -1627,7 +1657,7 @@
     </row>
     <row r="44" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -1639,7 +1669,7 @@
     </row>
     <row r="46" spans="2:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -1651,7 +1681,7 @@
     </row>
     <row r="48" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -1673,14 +1703,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B48:D48"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1721,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -1729,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1737,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1745,7 +1775,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1753,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Data Vault - Northwind.xlsx
+++ b/Documentation/Data Vault - Northwind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8d30ba3537acd5/Data Engineering/Data Vault/Data-Vault-Example-Northwind/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1959" documentId="13_ncr:1_{DD5DDCC3-190E-4B47-8546-EDFD77CA3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0C3460-6000-458A-AAFD-81034C87B6CC}"/>
+  <xr:revisionPtr revIDLastSave="1960" documentId="13_ncr:1_{DD5DDCC3-190E-4B47-8546-EDFD77CA3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2135A6FE-8B79-4CC4-941D-373268C3C5B2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6207AA47-5294-48E0-8A61-6F3DBD8121A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
   <si>
     <t>Object type</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>This is a single-source example so business key collision code (BKCC) has been omitted from hubs.</t>
+  </si>
+  <si>
+    <t>Data_Vault|Information Mart</t>
   </si>
 </sst>
 </file>
@@ -773,6 +776,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1121,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A415F46-8E07-4FE7-966B-4E63E945769C}">
   <dimension ref="B2:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,7 +1409,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>15</v>
